--- a/第二次作业-kmeans算法设计/data/iris34.xlsx
+++ b/第二次作业-kmeans算法设计/data/iris34.xlsx
@@ -1,55 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\admin\Documents\MATLAB\moshishibie_lib\第二次作业-kmeans算法设计\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005B4E34-0E48-4270-ADE2-3EE2168F3FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>sepal length (cm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sepal width (cm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>petal length (cm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>petal width (cm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -62,16 +53,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,43 +100,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4294C1C8-B6EC-4836-9F5C-9388E7642E5E}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,10 +145,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -204,71 +186,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -296,7 +278,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -319,11 +301,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -332,13 +314,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -348,7 +330,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -357,7 +339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -366,7 +348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -374,10 +356,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -442,48 +424,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C2" s="4">
         <v>3.5</v>
@@ -498,12 +480,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -518,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -538,12 +520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C5" s="4">
         <v>3.1</v>
@@ -558,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -578,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -598,12 +580,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C8" s="4">
         <v>3.4</v>
@@ -618,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -638,12 +620,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C10" s="4">
         <v>2.9</v>
@@ -658,12 +640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C11" s="4">
         <v>3.1</v>
@@ -678,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -698,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -718,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -738,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -749,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E15" s="4">
         <v>0.1</v>
@@ -758,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -778,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -786,7 +768,7 @@
         <v>5.7</v>
       </c>
       <c r="C17" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="D17" s="4">
         <v>1.5</v>
@@ -798,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -818,12 +800,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C19" s="4">
         <v>3.5</v>
@@ -838,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -858,12 +840,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C21" s="4">
         <v>3.8</v>
@@ -878,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -898,12 +880,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C23" s="4">
         <v>3.7</v>
@@ -918,12 +900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C24" s="4">
         <v>3.6</v>
@@ -938,12 +920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C25" s="4">
         <v>3.3</v>
@@ -958,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -978,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -998,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1018,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1038,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1058,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1078,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1098,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1118,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1126,7 +1108,7 @@
         <v>5.2</v>
       </c>
       <c r="C34" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="D34" s="4">
         <v>1.5</v>
@@ -1138,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1158,12 +1140,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C36" s="4">
         <v>3.1</v>
@@ -1178,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1198,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1218,12 +1200,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C39" s="4">
         <v>3.6</v>
@@ -1238,12 +1220,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C40" s="5">
         <v>3</v>
@@ -1258,12 +1240,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C41" s="4">
         <v>3.4</v>
@@ -1278,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -1298,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -1306,7 +1288,7 @@
         <v>4.5</v>
       </c>
       <c r="C43" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D43" s="4">
         <v>1.3</v>
@@ -1318,12 +1300,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C44" s="4">
         <v>3.2</v>
@@ -1338,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -1358,12 +1340,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C46" s="4">
         <v>3.8</v>
@@ -1378,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -1398,12 +1380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C48" s="4">
         <v>3.8</v>
@@ -1418,12 +1400,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C49" s="4">
         <v>3.2</v>
@@ -1438,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -1458,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -1478,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -1498,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -1518,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -1529,7 +1511,7 @@
         <v>3.1</v>
       </c>
       <c r="D54" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="E54" s="4">
         <v>1.5</v>
@@ -1538,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -1546,7 +1528,7 @@
         <v>5.5</v>
       </c>
       <c r="C55" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
@@ -1558,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -1569,7 +1551,7 @@
         <v>2.8</v>
       </c>
       <c r="D56" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="E56" s="4">
         <v>1.5</v>
@@ -1578,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -1598,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -1618,12 +1600,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C59" s="4">
         <v>2.4</v>
@@ -1638,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -1649,7 +1631,7 @@
         <v>2.9</v>
       </c>
       <c r="D60" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="E60" s="4">
         <v>1.3</v>
@@ -1658,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -1678,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -1698,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -1718,7 +1700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -1726,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D64" s="5">
         <v>4</v>
@@ -1738,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -1758,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -1778,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -1789,7 +1771,7 @@
         <v>3.1</v>
       </c>
       <c r="D67" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E67" s="4">
         <v>1.4</v>
@@ -1798,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -1818,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -1829,7 +1811,7 @@
         <v>2.7</v>
       </c>
       <c r="D69" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -1838,7 +1820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -1846,7 +1828,7 @@
         <v>6.2</v>
       </c>
       <c r="C70" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D70" s="4">
         <v>4.5</v>
@@ -1858,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -1872,13 +1854,13 @@
         <v>3.9</v>
       </c>
       <c r="E71" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F71" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -1898,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -1918,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -1929,7 +1911,7 @@
         <v>2.5</v>
       </c>
       <c r="D74" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="E74" s="4">
         <v>1.5</v>
@@ -1938,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -1958,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -1978,7 +1960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -1989,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E77" s="4">
         <v>1.4</v>
@@ -1998,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -2018,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -2038,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -2058,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -2078,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -2092,13 +2074,13 @@
         <v>3.8</v>
       </c>
       <c r="E82" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F82" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -2118,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -2138,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -2149,7 +2131,7 @@
         <v>2.7</v>
       </c>
       <c r="D85" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E85" s="4">
         <v>1.6</v>
@@ -2158,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -2178,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -2198,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -2218,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -2226,10 +2208,10 @@
         <v>6.3</v>
       </c>
       <c r="C89" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D89" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E89" s="4">
         <v>1.3</v>
@@ -2238,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -2249,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="E90" s="4">
         <v>1.3</v>
@@ -2258,7 +2240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -2278,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -2289,7 +2271,7 @@
         <v>2.6</v>
       </c>
       <c r="D92" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E92" s="4">
         <v>1.2</v>
@@ -2298,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -2309,7 +2291,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="E93" s="4">
         <v>1.4</v>
@@ -2318,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -2338,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -2346,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D95" s="4">
         <v>3.3</v>
@@ -2358,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -2378,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -2398,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -2418,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -2438,12 +2420,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C100" s="4">
         <v>2.5</v>
@@ -2452,13 +2434,13 @@
         <v>3</v>
       </c>
       <c r="E100" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F100" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -2469,7 +2451,7 @@
         <v>2.8</v>
       </c>
       <c r="D101" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="E101" s="4">
         <v>1.3</v>
@@ -2478,7 +2460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -2498,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -2509,7 +2491,7 @@
         <v>2.7</v>
       </c>
       <c r="D103" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E103" s="4">
         <v>1.9</v>
@@ -2518,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -2538,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -2558,7 +2540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -2572,13 +2554,13 @@
         <v>5.8</v>
       </c>
       <c r="E106" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F106" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -2598,12 +2580,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="C108" s="4">
         <v>2.5</v>
@@ -2618,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -2638,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -2658,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -2678,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -2689,7 +2671,7 @@
         <v>3.2</v>
       </c>
       <c r="D112" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E112" s="5">
         <v>2</v>
@@ -2698,7 +2680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -2718,7 +2700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -2738,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -2758,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -2769,7 +2751,7 @@
         <v>2.8</v>
       </c>
       <c r="D116" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E116" s="4">
         <v>2.4</v>
@@ -2778,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -2792,13 +2774,13 @@
         <v>5.3</v>
       </c>
       <c r="E117" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F117" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -2818,7 +2800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -2832,13 +2814,13 @@
         <v>6.7</v>
       </c>
       <c r="E119" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F119" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -2852,13 +2834,13 @@
         <v>6.9</v>
       </c>
       <c r="E120" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F120" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -2866,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D121" s="5">
         <v>5</v>
@@ -2878,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -2892,13 +2874,13 @@
         <v>5.7</v>
       </c>
       <c r="E122" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F122" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -2909,7 +2891,7 @@
         <v>2.8</v>
       </c>
       <c r="D123" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="E123" s="5">
         <v>2</v>
@@ -2918,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -2938,7 +2920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -2949,7 +2931,7 @@
         <v>2.7</v>
       </c>
       <c r="D125" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="E125" s="4">
         <v>1.8</v>
@@ -2958,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -2978,7 +2960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -2998,7 +2980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -3018,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -3029,7 +3011,7 @@
         <v>3</v>
       </c>
       <c r="D129" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="E129" s="4">
         <v>1.8</v>
@@ -3038,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -3058,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -3078,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -3098,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -3118,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -3132,13 +3114,13 @@
         <v>5.6</v>
       </c>
       <c r="E134" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F134" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -3149,7 +3131,7 @@
         <v>2.8</v>
       </c>
       <c r="D135" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E135" s="4">
         <v>1.5</v>
@@ -3158,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -3178,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -3192,13 +3174,13 @@
         <v>6.1</v>
       </c>
       <c r="E137" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F137" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3">
         <v>136</v>
       </c>
@@ -3218,7 +3200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -3238,7 +3220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -3258,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -3278,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -3298,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -3309,16 +3291,16 @@
         <v>3.1</v>
       </c>
       <c r="D143" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E143" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F143" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -3329,7 +3311,7 @@
         <v>2.7</v>
       </c>
       <c r="D144" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E144" s="4">
         <v>1.9</v>
@@ -3338,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -3352,13 +3334,13 @@
         <v>5.9</v>
       </c>
       <c r="E145" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F145" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -3378,7 +3360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -3392,13 +3374,13 @@
         <v>5.2</v>
       </c>
       <c r="E147" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F147" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -3418,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -3438,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3">
         <v>148</v>
       </c>
@@ -3452,13 +3434,13 @@
         <v>5.4</v>
       </c>
       <c r="E150" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F150" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -3469,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="E151" s="4">
         <v>1.8</v>
@@ -3479,7 +3461,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>